--- a/Data/Graphs/Ex1_data.xlsx
+++ b/Data/Graphs/Ex1_data.xlsx
@@ -8,24 +8,55 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaxar/Desktop/AI_Final/Data/Graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2E84D23-6D04-BA4F-941E-4A1E4AD8DA8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D95E22D5-5CC1-1943-85A9-75719F6C03AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="49800" windowHeight="28800"/>
   </bookViews>
   <sheets>
     <sheet name="Ex1_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>x1</t>
   </si>
   <si>
     <t>x2</t>
+  </si>
+  <si>
+    <t>x2 mean</t>
+  </si>
+  <si>
+    <t>x1 mean</t>
+  </si>
+  <si>
+    <t>x1 stdv</t>
+  </si>
+  <si>
+    <t>x2 stdv</t>
+  </si>
+  <si>
+    <t>x1 std</t>
+  </si>
+  <si>
+    <t>x2 std</t>
+  </si>
+  <si>
+    <t>x norm</t>
+  </si>
+  <si>
+    <t>y norm</t>
   </si>
 </sst>
 </file>
@@ -569,6 +600,5864 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Original</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ex1_data!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Ex1_data!$A$2:$A$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>-2.3586999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.3586999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4586999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.2587000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.3586999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.0587</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.3586999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.2587000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.3586999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.2587000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.2587000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.1587000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.3586999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.6587000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.5587</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.2587000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.4586999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.3586999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.0587</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.2587000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.0587</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.2587000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.7587000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.0587</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.8587</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.1587000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.1587000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.2587000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.3586999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.1587000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.1587000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.2587000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.2587000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.3586999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-2.2587000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.5587</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.4586999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.2587000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.4586999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.2587000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.4586999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.4586999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.4586999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.1587000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.8587</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.3586999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2.1587000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.3586999999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.2587000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.3586999999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.94133</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.74133000000000004</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.1413</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.24132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.84133000000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.74133000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.94133</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.45867000000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.84133000000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.14133000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.25867000000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.44133</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.24132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.94133</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.15867000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.64132999999999996</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.74133000000000004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.34133000000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.74133000000000004</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.14133000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.0412999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.24132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.1413</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.94133</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.54132999999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.64132999999999996</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.0412999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.2413000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.74133000000000004</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.25867000000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.1333000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-5.8666999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.14133000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.3412999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.74133000000000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.74133000000000004</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.94133</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.64132999999999996</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.34133000000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.24132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.64132999999999996</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.84133000000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.24132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.45867000000000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.44133</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.44133</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.44133</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.54132999999999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.75866999999999996</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.34133000000000002</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.2412999999999998</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.3412999999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.1413000000000002</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.8412999999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.0413000000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.8412999999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.74133000000000004</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.5413000000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.0413000000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.3412999999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.3412999999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.5412999999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.7413000000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.2413000000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.3412999999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.5412999999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.7413000000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.9413</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.1413000000000002</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.2413000000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.9413</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.1413</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.9413</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.1413</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.9413</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.2412999999999998</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.0412999999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.1413</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.8412999999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.0413000000000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.3412999999999999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.6413000000000002</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.8412999999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.3412999999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.8412999999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.3412999999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.8412999999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.7413000000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.0412999999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.6413</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.8412999999999999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.3412999999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.3412999999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.1413000000000002</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.9413</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.4413</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.2413000000000001</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.4413</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.6413</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.3412999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Ex1_data!$B$2:$B$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>-0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.79866999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.89866999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.0987</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.0987</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.0987</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.79866999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.79866999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.89866999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.89866999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.89866999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.79866999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.69867000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.79866999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.79866999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.0987</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.0987</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.0987</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.89866999999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.89866999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.59867000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.79866999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.89866999999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.20133000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.30132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.30132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.10133</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.30132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.10133</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.40133000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.19867000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.10133</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.20133000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.19867000000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.30132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.19867000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.20133000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.10133</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.20133000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.30132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.19867000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.30132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-9.8667000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.60133000000000003</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.10133</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.30132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.3332999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.10133</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.20133000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.20133000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.50133000000000005</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.30132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.19867000000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-9.8667000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.19867000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.3332999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.40133000000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.30132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.40133000000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.30132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.10133</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.10133</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.10133</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.3332999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.20133000000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.3332999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.19867000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.10133</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.3332999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.10133</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.10133</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-9.8667000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.10133</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.3012999999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.70133000000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.90132999999999996</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.60133000000000003</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.0013000000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.90132999999999996</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.50133000000000005</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.60133000000000003</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.60133000000000003</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.3012999999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.80132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.70133000000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.90132999999999996</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.80132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.2013</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.1012999999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.60133000000000003</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.0013000000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.1012999999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.30132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.1012999999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.80132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.80132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.60133000000000003</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.90132999999999996</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.60133000000000003</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.60133000000000003</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.60133000000000003</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.90132999999999996</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.40133000000000002</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.70133000000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.80132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.0013000000000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.30132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.20133000000000001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.1012999999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.2013</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.60133000000000003</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.60133000000000003</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.90132999999999996</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.2013</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.1012999999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.70133000000000001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.1012999999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.3012999999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.1012999999999999</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.70133000000000001</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.80132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.1012999999999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.60133000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F497-0F4F-8071-6AA4AFAD3E16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="927772127"/>
+        <c:axId val="926126655"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="927772127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>x2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="926126655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="926126655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>x1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="927772127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Standarized</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ex1_data!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x2 std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Ex1_data!$C$2:$C$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>-1.336797513328176</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.336797513328176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.3934732788668549</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.2801217477894975</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.336797513328176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.1667702167121397</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.336797513328176</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.2801217477894975</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.336797513328176</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.2801217477894975</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.2801217477894975</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.2234459822508186</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.336797513328176</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.5068248099442128</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.4501490444055338</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.2801217477894975</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.3934732788668549</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.336797513328176</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.1667702167121397</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.2801217477894975</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.1667702167121397</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.2801217477894975</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.5635005754828915</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.1667702167121397</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.0534186856347822</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.2234459822508186</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.2234459822508186</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.2801217477894975</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.336797513328176</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.2234459822508186</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.2234459822508186</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.2801217477894975</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.2801217477894975</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.336797513328176</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.2801217477894975</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.4501490444055338</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.3934732788668549</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.2801217477894975</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.3934732788668549</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.2801217477894975</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.3934732788668549</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.3934732788668549</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.3934732788668549</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.2234459822508186</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.0534186856347822</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.336797513328176</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.2234459822508186</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.336797513328176</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.2801217477894975</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.336797513328176</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.53351975217788661</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.42016822110052898</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.64685428052558269</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.13678939340713483</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.4768439866392078</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.42016822110052898</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.53351975217788661</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.25994096536361694</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.4768439866392078</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.0113627868456022E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.14658943428625928</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.25014092448449249</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.13678939340713483</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.53351975217788661</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-8.9913668747580458E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.36349245556185011</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.42016822110052898</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.19346515894581368</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.42016822110052898</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.0113627868456022E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.59017851498690377</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.13678939340713483</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.64685428052558269</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.53351975217788661</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.3068166900231713</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.36349245556185011</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.59017851498690377</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.70353004606426151</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.42016822110052898</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.14658943428625928</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.3439562602743356E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-3.3236202935935467E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.0113627868456022E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.76020581160294032</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.42016822110052898</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.42016822110052898</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.53351975217788661</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.36349245556185011</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.19346515894581368</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.13678939340713483</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.36349245556185011</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.4768439866392078</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.13678939340713483</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.25994096536361694</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.25014092448449249</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.25014092448449249</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.25014092448449249</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.3068166900231713</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.42996826197965343</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.19346515894581368</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.2702877014510499</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.76020581160294032</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.2136119359123712</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.0435846392963344</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.1569361703736922</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.6103422946831227</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.42016822110052898</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.4403149980670864</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.1569361703736922</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.3269634669897286</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.76020581160294032</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.87355734268029794</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.98690887375765568</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.70353004606426151</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.76020581160294032</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.87355734268029794</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.98690887375765568</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.6670180602218017</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.7803695912991595</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.70353004606426151</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.1002604048350133</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.64685428052558269</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.6670180602218017</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.64685428052558269</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.1002604048350133</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.2702877014510499</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.59017851498690377</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.64685428052558269</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.0435846392963344</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.1569361703736922</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.3269634669897286</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.4969907636057653</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.0435846392963344</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.76020581160294032</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.0435846392963344</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.3269634669897286</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.0435846392963344</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.98690887375765568</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.59017851498690377</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.93023310821897676</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.0435846392963344</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.76020581160294032</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.76020581160294032</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.2136119359123712</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.1002604048350133</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.81688157714161913</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.70353004606426151</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.81688157714161913</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.93023310821897676</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.76020581160294032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Ex1_data!$D$2:$D$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>-1.3085927867220384</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.3085927867220384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.3085927867220384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.3085927867220384</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.3085927867220384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.046523642886209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.1775582148041237</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.3085927867220384</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.3085927867220384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.4396666690115285</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.3085927867220384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.3085927867220384</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.4396666690115285</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.4396666690115285</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.3085927867220384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.046523642886209</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.046523642886209</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.1775582148041237</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.1775582148041237</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.1775582148041237</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.3085927867220384</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.046523642886209</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.3085927867220384</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.91548907096829446</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.3085927867220384</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.3085927867220384</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.046523642886209</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.3085927867220384</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.3085927867220384</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.3085927867220384</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.3085927867220384</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.046523642886209</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.4396666690115285</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.3085927867220384</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.4396666690115285</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.3085927867220384</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.3085927867220384</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.4396666690115285</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.3085927867220384</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.3085927867220384</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.1775582148041237</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.1775582148041237</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.3085927867220384</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.78445449905037978</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.046523642886209</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.1775582148041237</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.3085927867220384</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.3085927867220384</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.3085927867220384</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.3085927867220384</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.26382207629293786</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.39485664821085253</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.39485664821085253</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.13278750437502315</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.39485664821085253</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.13278750437502315</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.52589122012876721</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.26031621137872091</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.13278750437502315</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.26382207629293786</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.26031621137872091</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.39485664821085253</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.26031621137872091</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.26382207629293786</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.13278750437502315</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.26382207629293786</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.39485664821085253</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.26031621137872091</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.39485664821085253</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.12927770842364869</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.78796036396459657</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.13278750437502315</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.39485664821085253</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.7572565979817561E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.13278750437502315</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.26382207629293786</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.26382207629293786</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.65692579204668189</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.39485664821085253</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.26031621137872091</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.12927770842364869</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.26031621137872091</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.7572565979817561E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.52589122012876721</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.39485664821085253</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.52589122012876721</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.39485664821085253</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.13278750437502315</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.13278750437502315</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.13278750437502315</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.7572565979817561E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.26382207629293786</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.7572565979817561E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.26031621137872091</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.13278750437502315</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.7572565979817561E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.13278750437502315</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.13278750437502315</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.12927770842364869</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.13278750437502315</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.7051630570184237</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.91899493588251124</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.1810640797183405</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.78796036396459657</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.3120593412646799</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.1810640797183405</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.65692579204668189</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.78796036396459657</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.78796036396459657</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.7051630570184237</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.0500295078004258</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.91899493588251124</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.1810640797183405</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.0500295078004258</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.5741284851005093</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.4430939131825946</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.78796036396459657</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.3120593412646799</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.4430939131825946</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.39485664821085253</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.4430939131825946</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.0500295078004258</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.0500295078004258</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.78796036396459657</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.1810640797183405</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.78796036396459657</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.78796036396459657</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.78796036396459657</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.1810640797183405</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.52589122012876721</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.91899493588251124</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.0500295078004258</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.3120593412646799</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.39485664821085253</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.26382207629293786</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.4430939131825946</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.5741284851005093</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.78796036396459657</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.78796036396459657</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.1810640797183405</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.5741284851005093</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.4430939131825946</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.91899493588251124</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.4430939131825946</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.7051630570184237</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.4430939131825946</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.91899493588251124</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.0500295078004258</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.4430939131825946</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.78796036396459657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D01-D149-8060-678317723894}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="925718207"/>
+        <c:axId val="929517039"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="925718207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>x2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="929517039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="929517039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>x1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="925718207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Normalized</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ex1_data!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y norm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Ex1_data!$H$2:$H$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>-0.92086095857995398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.92086095857995398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.92648981633664396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.91459081046457302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.92086095857995398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.93230045493550895</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.93447223198859397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.91459081046457302</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.92086095857995398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.899254982530165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.91459081046457302</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.90758358582751297</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.90648138879154405</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.92419501967516304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.93155876226588297</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.94279605990899396</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.95108039364658703</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.93447223198859397</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.91648581540088903</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.92915742787008204</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.89972617481431705</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.94279605990899396</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.940284358909526</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.94695315594659801</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.88089973601892402</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.90758358582751297</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.93786877077254305</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.91459081046457302</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.92086095857995398</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.90758358582751297</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.90758358582751297</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.94279605990899396</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.899254982530165</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.92086095857995398</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.899254982530165</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.93155876226588297</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.92648981633664396</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.899254982530165</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.92648981633664396</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.91459081046457302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.93922811908064097</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.93922811908064097</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.92648981633664396</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.96362936035549096</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.91877158526990499</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.93447223198859397</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.90758358582751297</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.92086095857995398</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.91459081046457302</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.92086095857995398</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.97788397687352202</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.92639479770004196</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.96686824554840101</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.92202111217809402</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.94143849108836697</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.99078725803245504</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.91988541173782301</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.917619112811076</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.99282503798848298</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.57455046843045798</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.79307853751575597</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.82585858156479097</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.77204380857178601</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.97788397687352202</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.84279866471571896</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.95409190101091002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.92639479770004196</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.86426247701461001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.92639479770004196</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.81995083914692002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.86597672599348097</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.92202111217809402</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.96686824554840101</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.99999899690674598</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.982927848318352</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.95409190101091002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.98181711172065</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.92723255948264105</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.92639479770004196</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.79307853751575597</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.38638095501213399</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.28320870530567299</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.99995550327405902</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.95803441325630101</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.92639479770004196</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.87940309983687803</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.95239348141701596</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.98774697584028404</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.95864866218003797</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.92202111217809402</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.99999783896777295</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.97254164775215302</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.99998473864148396</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.917619112811076</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.97463997370906996</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.99999543652275502</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.97463997370906996</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.982927848318352</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.99164894882375898</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.95864866218003797</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.86480570132896395</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.88617229949281195</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.92167693407041296</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.95059186996220502</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.89780548791605697</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.95318906769595202</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.82836530968010602</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.97312808575395304</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.95924486642686801</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.87406569031296</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.85846554435288303</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.91020198421610499</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.88808074782283497</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.840145137501073</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.74491295895056497</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.81364072297608603</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.94522538116194799</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.94664927932756704</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.94368540645701804</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.97177678257599198</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.86978570458586602</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.81841582286705505</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.96483396006425304</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.88471181350181005</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.90700680079457097</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.96584223220896503</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.86597672599348097</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.88471181350181005</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.89816504553085397</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.981216045592751</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.95794556960801402</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.95693023041404601</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.87850568314673005</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.97568175268280799</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.99407531990284304</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.90489138873695296</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.83751647738107304</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.94522538116194799</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.86597672599348097</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.87652805385440802</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.83751647738107304</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.77286249822702302</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.88617229949281195</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.889277667648256</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.830645502849365</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.79458936959117499</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.87064525583518404</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.87400076874843502</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.83038867273073802</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.91249470071650995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Ex1_data!$I$2:$I$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>-0.389891132193599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.389891132193599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.376319837670686</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.40438057497084801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.389891132193599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.36168475462347199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.35603602014719499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.40438057497084801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.389891132193599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.43742482370650898</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.40438057497084801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.41987145025170802</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.42224577176634098</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.38192088920039902</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.36359080357684298</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.33337004877474502</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.30894349778082703</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.35603602014719499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.40006718206942099</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.369684289947317</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.43645482051868301</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.33337004877474502</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.34038995929683402</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.32137162358051602</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.47330292105773902</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.41987145025170802</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.34699015664654997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.40438057497084801</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.389891132193599</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.41987145025170802</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.41987145025170802</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.33337004877474502</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.43742482370650898</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.389891132193599</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.43742482370650898</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.36359080357684298</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.376319837670686</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.43742482370650898</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.376319837670686</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.40438057497084801</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.34329366485305202</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.34329366485305202</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.376319837670686</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.26724231674805299</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.394789531396952</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.35603602014719499</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.41987145025170802</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.389891132193599</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.40438057497084801</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.389891132193599</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.209148100096614</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.37655368647019999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.25527592081932798</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.38713959846271201</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.33718476759375898</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.135427505775334</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.39218723751791601</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.39746089594300099</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.119576101053537</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.81846915594073499</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.60911939168923801</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.563877294502794</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.63556931773487202</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.209148100096614</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.53822895755747002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.29951401373789799</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.37655368647019999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.50304112239912302</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.37655368647019999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.57243394499475797</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.500084302930625</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.38713959846271201</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.25527592081932798</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.41639877893593E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.183991426431379</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.29951401373789799</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.189829289448495</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.37448602194911101</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.37655368647019999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.60911939168923801</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.92233928551477695</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.95905830335756104</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.4335291340501108E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.28665321037213998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.37655368647019999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.47607792219056799</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.304871541069964</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.156063806561202</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.28459223900244102</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.38713959846271201</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.07895641665871E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.23272890535454699</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.5247157503447103E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.39746089594300099</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.22377873368214199</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.0210815387936201E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.22377873368214199</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.183991426431379</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.128966516184367</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.28459223900244102</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.50210666092864897</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.463355862822108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.38795828281216299</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.31044338736999499</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.44039221821895203</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.30237493484897399</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.56018828416754696</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.230264475585891</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.28257616005901498</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.48580774903013502</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.51287124033124198</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.41416463867532699</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.45968748661066799</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.54236163943747195</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.66716166225849105</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.58136801934312798</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.32641841064383698</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.322265638796006</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.33084415309939003</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.23590227817096801</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.49342965871344602</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.57462643593976803</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.26286009493023099</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.46613839903009102</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.42111597370842702</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.25913082117262998</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.500084302930625</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.46613839903009102</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.43965844810097499</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.19291208326935699</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.28694997067150202</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.29031798793688202</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.47773189623354201</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.21919196491158599</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.108693414520197</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.42564254320933098</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.54641206988425695</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.32641841064383698</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.500084302930625</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.48135077729884501</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.54641206988425695</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.63457352516023202</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.463355862822108</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.45736771838650497</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.55680162409616196</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.60714720927687504</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.49191141325617399</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.48592453758494603</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.55718457642013197</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.40908852485041303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F7D-0640-BC5A-C36FB04F7EFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="930066559"/>
+        <c:axId val="930807823"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="930066559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>x2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="930807823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="930807823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>x1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="930066559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB21FA16-2E66-1C47-8167-B444CE5A7C81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA40B508-C31F-2C40-B367-1ABD6883DB9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8757EB73-EF5D-B146-BF39-F5A66B8EABFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -866,1221 +6755,3369 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B151"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.83203125" customWidth="1"/>
+    <col min="27" max="27" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-2.3586999999999998</v>
       </c>
       <c r="B2">
         <v>-0.99866999999999995</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <f>STANDARDIZE(A2, $F$2, $F$4)</f>
+        <v>-1.336797513328176</v>
+      </c>
+      <c r="D2">
+        <f>STANDARDIZE(B2, $G$2, $G$4)</f>
+        <v>-1.3085927867220384</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(A2:A151)</f>
+        <v>-2.4293333332813621E-5</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(B2:B151)</f>
+        <v>-7.7633333335665646E-6</v>
+      </c>
+      <c r="H2">
+        <v>-0.92086095857995398</v>
+      </c>
+      <c r="I2">
+        <v>-0.389891132193599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-2.3586999999999998</v>
       </c>
       <c r="B3">
         <v>-0.99866999999999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">STANDARDIZE(A3, $F$2, $F$4)</f>
+        <v>-1.336797513328176</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="1">STANDARDIZE(B3, $G$2, $G$4)</f>
+        <v>-1.3085927867220384</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>-0.92086095857995398</v>
+      </c>
+      <c r="I3">
+        <v>-0.389891132193599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-2.4586999999999999</v>
       </c>
       <c r="B4">
         <v>-0.99866999999999995</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>-1.3934732788668549</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>-1.3085927867220384</v>
+      </c>
+      <c r="F4">
+        <f>STDEV(A2:A151)</f>
+        <v>1.7644225719678053</v>
+      </c>
+      <c r="G4">
+        <f>STDEV(B2:B151)</f>
+        <v>0.76315737546457596</v>
+      </c>
+      <c r="H4">
+        <v>-0.92648981633664396</v>
+      </c>
+      <c r="I4">
+        <v>-0.376319837670686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-2.2587000000000002</v>
       </c>
       <c r="B5">
         <v>-0.99866999999999995</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>-1.2801217477894975</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>-1.3085927867220384</v>
+      </c>
+      <c r="H5">
+        <v>-0.91459081046457302</v>
+      </c>
+      <c r="I5">
+        <v>-0.40438057497084801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-2.3586999999999998</v>
       </c>
       <c r="B6">
         <v>-0.99866999999999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>-1.336797513328176</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>-1.3085927867220384</v>
+      </c>
+      <c r="H6">
+        <v>-0.92086095857995398</v>
+      </c>
+      <c r="I6">
+        <v>-0.389891132193599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-2.0587</v>
       </c>
       <c r="B7">
         <v>-0.79866999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>-1.1667702167121397</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>-1.046523642886209</v>
+      </c>
+      <c r="H7">
+        <v>-0.93230045493550895</v>
+      </c>
+      <c r="I7">
+        <v>-0.36168475462347199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-2.3586999999999998</v>
       </c>
       <c r="B8">
         <v>-0.89866999999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-1.336797513328176</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>-1.1775582148041237</v>
+      </c>
+      <c r="H8">
+        <v>-0.93447223198859397</v>
+      </c>
+      <c r="I8">
+        <v>-0.35603602014719499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-2.2587000000000002</v>
       </c>
       <c r="B9">
         <v>-0.99866999999999995</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>-1.2801217477894975</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>-1.3085927867220384</v>
+      </c>
+      <c r="H9">
+        <v>-0.91459081046457302</v>
+      </c>
+      <c r="I9">
+        <v>-0.40438057497084801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-2.3586999999999998</v>
       </c>
       <c r="B10">
         <v>-0.99866999999999995</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-1.336797513328176</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>-1.3085927867220384</v>
+      </c>
+      <c r="H10">
+        <v>-0.92086095857995398</v>
+      </c>
+      <c r="I10">
+        <v>-0.389891132193599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-2.2587000000000002</v>
       </c>
       <c r="B11">
         <v>-1.0987</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>-1.2801217477894975</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>-1.4396666690115285</v>
+      </c>
+      <c r="H11">
+        <v>-0.899254982530165</v>
+      </c>
+      <c r="I11">
+        <v>-0.43742482370650898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-2.2587000000000002</v>
       </c>
       <c r="B12">
         <v>-0.99866999999999995</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>-1.2801217477894975</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>-1.3085927867220384</v>
+      </c>
+      <c r="H12">
+        <v>-0.91459081046457302</v>
+      </c>
+      <c r="I12">
+        <v>-0.40438057497084801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-2.1587000000000001</v>
       </c>
       <c r="B13">
         <v>-0.99866999999999995</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-1.2234459822508186</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>-1.3085927867220384</v>
+      </c>
+      <c r="H13">
+        <v>-0.90758358582751297</v>
+      </c>
+      <c r="I13">
+        <v>-0.41987145025170802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-2.3586999999999998</v>
       </c>
       <c r="B14">
         <v>-1.0987</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>-1.336797513328176</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>-1.4396666690115285</v>
+      </c>
+      <c r="H14">
+        <v>-0.90648138879154405</v>
+      </c>
+      <c r="I14">
+        <v>-0.42224577176634098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-2.6587000000000001</v>
       </c>
       <c r="B15">
         <v>-1.0987</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>-1.5068248099442128</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>-1.4396666690115285</v>
+      </c>
+      <c r="H15">
+        <v>-0.92419501967516304</v>
+      </c>
+      <c r="I15">
+        <v>-0.38192088920039902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-2.5587</v>
       </c>
       <c r="B16">
         <v>-0.99866999999999995</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>-1.4501490444055338</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>-1.3085927867220384</v>
+      </c>
+      <c r="H16">
+        <v>-0.93155876226588297</v>
+      </c>
+      <c r="I16">
+        <v>-0.36359080357684298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-2.2587000000000002</v>
       </c>
       <c r="B17">
         <v>-0.79866999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>-1.2801217477894975</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>-1.046523642886209</v>
+      </c>
+      <c r="H17">
+        <v>-0.94279605990899396</v>
+      </c>
+      <c r="I17">
+        <v>-0.33337004877474502</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-2.4586999999999999</v>
       </c>
       <c r="B18">
         <v>-0.79866999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>-1.3934732788668549</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>-1.046523642886209</v>
+      </c>
+      <c r="H18">
+        <v>-0.95108039364658703</v>
+      </c>
+      <c r="I18">
+        <v>-0.30894349778082703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-2.3586999999999998</v>
       </c>
       <c r="B19">
         <v>-0.89866999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>-1.336797513328176</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>-1.1775582148041237</v>
+      </c>
+      <c r="H19">
+        <v>-0.93447223198859397</v>
+      </c>
+      <c r="I19">
+        <v>-0.35603602014719499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-2.0587</v>
       </c>
       <c r="B20">
         <v>-0.89866999999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>-1.1667702167121397</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>-1.1775582148041237</v>
+      </c>
+      <c r="H20">
+        <v>-0.91648581540088903</v>
+      </c>
+      <c r="I20">
+        <v>-0.40006718206942099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-2.2587000000000002</v>
       </c>
       <c r="B21">
         <v>-0.89866999999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>-1.2801217477894975</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>-1.1775582148041237</v>
+      </c>
+      <c r="H21">
+        <v>-0.92915742787008204</v>
+      </c>
+      <c r="I21">
+        <v>-0.369684289947317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-2.0587</v>
       </c>
       <c r="B22">
         <v>-0.99866999999999995</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>-1.1667702167121397</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>-1.3085927867220384</v>
+      </c>
+      <c r="H22">
+        <v>-0.89972617481431705</v>
+      </c>
+      <c r="I22">
+        <v>-0.43645482051868301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-2.2587000000000002</v>
       </c>
       <c r="B23">
         <v>-0.79866999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>-1.2801217477894975</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>-1.046523642886209</v>
+      </c>
+      <c r="H23">
+        <v>-0.94279605990899396</v>
+      </c>
+      <c r="I23">
+        <v>-0.33337004877474502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-2.7587000000000002</v>
       </c>
       <c r="B24">
         <v>-0.99866999999999995</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>-1.5635005754828915</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>-1.3085927867220384</v>
+      </c>
+      <c r="H24">
+        <v>-0.940284358909526</v>
+      </c>
+      <c r="I24">
+        <v>-0.34038995929683402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-2.0587</v>
       </c>
       <c r="B25">
         <v>-0.69867000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>-1.1667702167121397</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>-0.91548907096829446</v>
+      </c>
+      <c r="H25">
+        <v>-0.94695315594659801</v>
+      </c>
+      <c r="I25">
+        <v>-0.32137162358051602</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-1.8587</v>
       </c>
       <c r="B26">
         <v>-0.99866999999999995</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>-1.0534186856347822</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>-1.3085927867220384</v>
+      </c>
+      <c r="H26">
+        <v>-0.88089973601892402</v>
+      </c>
+      <c r="I26">
+        <v>-0.47330292105773902</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>-2.1587000000000001</v>
       </c>
       <c r="B27">
         <v>-0.99866999999999995</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>-1.2234459822508186</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>-1.3085927867220384</v>
+      </c>
+      <c r="H27">
+        <v>-0.90758358582751297</v>
+      </c>
+      <c r="I27">
+        <v>-0.41987145025170802</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>-2.1587000000000001</v>
       </c>
       <c r="B28">
         <v>-0.79866999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>-1.2234459822508186</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>-1.046523642886209</v>
+      </c>
+      <c r="H28">
+        <v>-0.93786877077254305</v>
+      </c>
+      <c r="I28">
+        <v>-0.34699015664654997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-2.2587000000000002</v>
       </c>
       <c r="B29">
         <v>-0.99866999999999995</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>-1.2801217477894975</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>-1.3085927867220384</v>
+      </c>
+      <c r="H29">
+        <v>-0.91459081046457302</v>
+      </c>
+      <c r="I29">
+        <v>-0.40438057497084801</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-2.3586999999999998</v>
       </c>
       <c r="B30">
         <v>-0.99866999999999995</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>-1.336797513328176</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>-1.3085927867220384</v>
+      </c>
+      <c r="H30">
+        <v>-0.92086095857995398</v>
+      </c>
+      <c r="I30">
+        <v>-0.389891132193599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-2.1587000000000001</v>
       </c>
       <c r="B31">
         <v>-0.99866999999999995</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>-1.2234459822508186</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>-1.3085927867220384</v>
+      </c>
+      <c r="H31">
+        <v>-0.90758358582751297</v>
+      </c>
+      <c r="I31">
+        <v>-0.41987145025170802</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-2.1587000000000001</v>
       </c>
       <c r="B32">
         <v>-0.99866999999999995</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>-1.2234459822508186</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>-1.3085927867220384</v>
+      </c>
+      <c r="H32">
+        <v>-0.90758358582751297</v>
+      </c>
+      <c r="I32">
+        <v>-0.41987145025170802</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-2.2587000000000002</v>
       </c>
       <c r="B33">
         <v>-0.79866999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>-1.2801217477894975</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>-1.046523642886209</v>
+      </c>
+      <c r="H33">
+        <v>-0.94279605990899396</v>
+      </c>
+      <c r="I33">
+        <v>-0.33337004877474502</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>-2.2587000000000002</v>
       </c>
       <c r="B34">
         <v>-1.0987</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>-1.2801217477894975</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>-1.4396666690115285</v>
+      </c>
+      <c r="H34">
+        <v>-0.899254982530165</v>
+      </c>
+      <c r="I34">
+        <v>-0.43742482370650898</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-2.3586999999999998</v>
       </c>
       <c r="B35">
         <v>-0.99866999999999995</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>-1.336797513328176</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>-1.3085927867220384</v>
+      </c>
+      <c r="H35">
+        <v>-0.92086095857995398</v>
+      </c>
+      <c r="I35">
+        <v>-0.389891132193599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-2.2587000000000002</v>
       </c>
       <c r="B36">
         <v>-1.0987</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>-1.2801217477894975</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>-1.4396666690115285</v>
+      </c>
+      <c r="H36">
+        <v>-0.899254982530165</v>
+      </c>
+      <c r="I36">
+        <v>-0.43742482370650898</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>-2.5587</v>
       </c>
       <c r="B37">
         <v>-0.99866999999999995</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>-1.4501490444055338</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>-1.3085927867220384</v>
+      </c>
+      <c r="H37">
+        <v>-0.93155876226588297</v>
+      </c>
+      <c r="I37">
+        <v>-0.36359080357684298</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>-2.4586999999999999</v>
       </c>
       <c r="B38">
         <v>-0.99866999999999995</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>-1.3934732788668549</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>-1.3085927867220384</v>
+      </c>
+      <c r="H38">
+        <v>-0.92648981633664396</v>
+      </c>
+      <c r="I38">
+        <v>-0.376319837670686</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>-2.2587000000000002</v>
       </c>
       <c r="B39">
         <v>-1.0987</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>-1.2801217477894975</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>-1.4396666690115285</v>
+      </c>
+      <c r="H39">
+        <v>-0.899254982530165</v>
+      </c>
+      <c r="I39">
+        <v>-0.43742482370650898</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>-2.4586999999999999</v>
       </c>
       <c r="B40">
         <v>-0.99866999999999995</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>-1.3934732788668549</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>-1.3085927867220384</v>
+      </c>
+      <c r="H40">
+        <v>-0.92648981633664396</v>
+      </c>
+      <c r="I40">
+        <v>-0.376319837670686</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>-2.2587000000000002</v>
       </c>
       <c r="B41">
         <v>-0.99866999999999995</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>-1.2801217477894975</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>-1.3085927867220384</v>
+      </c>
+      <c r="H41">
+        <v>-0.91459081046457302</v>
+      </c>
+      <c r="I41">
+        <v>-0.40438057497084801</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>-2.4586999999999999</v>
       </c>
       <c r="B42">
         <v>-0.89866999999999997</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>-1.3934732788668549</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>-1.1775582148041237</v>
+      </c>
+      <c r="H42">
+        <v>-0.93922811908064097</v>
+      </c>
+      <c r="I42">
+        <v>-0.34329366485305202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>-2.4586999999999999</v>
       </c>
       <c r="B43">
         <v>-0.89866999999999997</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>-1.3934732788668549</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>-1.1775582148041237</v>
+      </c>
+      <c r="H43">
+        <v>-0.93922811908064097</v>
+      </c>
+      <c r="I43">
+        <v>-0.34329366485305202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-2.4586999999999999</v>
       </c>
       <c r="B44">
         <v>-0.99866999999999995</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>-1.3934732788668549</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>-1.3085927867220384</v>
+      </c>
+      <c r="H44">
+        <v>-0.92648981633664396</v>
+      </c>
+      <c r="I44">
+        <v>-0.376319837670686</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>-2.1587000000000001</v>
       </c>
       <c r="B45">
         <v>-0.59867000000000004</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>-1.2234459822508186</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>-0.78445449905037978</v>
+      </c>
+      <c r="H45">
+        <v>-0.96362936035549096</v>
+      </c>
+      <c r="I45">
+        <v>-0.26724231674805299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-1.8587</v>
       </c>
       <c r="B46">
         <v>-0.79866999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>-1.0534186856347822</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>-1.046523642886209</v>
+      </c>
+      <c r="H46">
+        <v>-0.91877158526990499</v>
+      </c>
+      <c r="I46">
+        <v>-0.394789531396952</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>-2.3586999999999998</v>
       </c>
       <c r="B47">
         <v>-0.89866999999999997</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>-1.336797513328176</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>-1.1775582148041237</v>
+      </c>
+      <c r="H47">
+        <v>-0.93447223198859397</v>
+      </c>
+      <c r="I47">
+        <v>-0.35603602014719499</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>-2.1587000000000001</v>
       </c>
       <c r="B48">
         <v>-0.99866999999999995</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>-1.2234459822508186</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>-1.3085927867220384</v>
+      </c>
+      <c r="H48">
+        <v>-0.90758358582751297</v>
+      </c>
+      <c r="I48">
+        <v>-0.41987145025170802</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>-2.3586999999999998</v>
       </c>
       <c r="B49">
         <v>-0.99866999999999995</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>-1.336797513328176</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>-1.3085927867220384</v>
+      </c>
+      <c r="H49">
+        <v>-0.92086095857995398</v>
+      </c>
+      <c r="I49">
+        <v>-0.389891132193599</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>-2.2587000000000002</v>
       </c>
       <c r="B50">
         <v>-0.99866999999999995</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>-1.2801217477894975</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>-1.3085927867220384</v>
+      </c>
+      <c r="H50">
+        <v>-0.91459081046457302</v>
+      </c>
+      <c r="I50">
+        <v>-0.40438057497084801</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-2.3586999999999998</v>
       </c>
       <c r="B51">
         <v>-0.99866999999999995</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>-1.336797513328176</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>-1.3085927867220384</v>
+      </c>
+      <c r="H51">
+        <v>-0.92086095857995398</v>
+      </c>
+      <c r="I51">
+        <v>-0.389891132193599</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.94133</v>
       </c>
       <c r="B52">
         <v>0.20133000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>0.53351975217788661</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>0.26382207629293786</v>
+      </c>
+      <c r="H52">
+        <v>0.97788397687352202</v>
+      </c>
+      <c r="I52">
+        <v>0.209148100096614</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.74133000000000004</v>
       </c>
       <c r="B53">
         <v>0.30132999999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>0.42016822110052898</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>0.39485664821085253</v>
+      </c>
+      <c r="H53">
+        <v>0.92639479770004196</v>
+      </c>
+      <c r="I53">
+        <v>0.37655368647019999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1.1413</v>
       </c>
       <c r="B54">
         <v>0.30132999999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>0.64685428052558269</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>0.39485664821085253</v>
+      </c>
+      <c r="H54">
+        <v>0.96686824554840101</v>
+      </c>
+      <c r="I54">
+        <v>0.25527592081932798</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.24132999999999999</v>
       </c>
       <c r="B55">
         <v>0.10133</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>0.13678939340713483</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>0.13278750437502315</v>
+      </c>
+      <c r="H55">
+        <v>0.92202111217809402</v>
+      </c>
+      <c r="I55">
+        <v>0.38713959846271201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.84133000000000002</v>
       </c>
       <c r="B56">
         <v>0.30132999999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>0.4768439866392078</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>0.39485664821085253</v>
+      </c>
+      <c r="H56">
+        <v>0.94143849108836697</v>
+      </c>
+      <c r="I56">
+        <v>0.33718476759375898</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.74133000000000004</v>
       </c>
       <c r="B57">
         <v>0.10133</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>0.42016822110052898</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>0.13278750437502315</v>
+      </c>
+      <c r="H57">
+        <v>0.99078725803245504</v>
+      </c>
+      <c r="I57">
+        <v>0.135427505775334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.94133</v>
       </c>
       <c r="B58">
         <v>0.40133000000000002</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>0.53351975217788661</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>0.52589122012876721</v>
+      </c>
+      <c r="H58">
+        <v>0.91988541173782301</v>
+      </c>
+      <c r="I58">
+        <v>0.39218723751791601</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>-0.45867000000000002</v>
       </c>
       <c r="B59">
         <v>-0.19867000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>-0.25994096536361694</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>-0.26031621137872091</v>
+      </c>
+      <c r="H59">
+        <v>-0.917619112811076</v>
+      </c>
+      <c r="I59">
+        <v>-0.39746089594300099</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.84133000000000002</v>
       </c>
       <c r="B60">
         <v>0.10133</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>0.4768439866392078</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>0.13278750437502315</v>
+      </c>
+      <c r="H60">
+        <v>0.99282503798848298</v>
+      </c>
+      <c r="I60">
+        <v>0.119576101053537</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.14133000000000001</v>
       </c>
       <c r="B61">
         <v>0.20133000000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>8.0113627868456022E-2</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>0.26382207629293786</v>
+      </c>
+      <c r="H61">
+        <v>0.57455046843045798</v>
+      </c>
+      <c r="I61">
+        <v>0.81846915594073499</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>-0.25867000000000001</v>
       </c>
       <c r="B62">
         <v>-0.19867000000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>-0.14658943428625928</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>-0.26031621137872091</v>
+      </c>
+      <c r="H62">
+        <v>-0.79307853751575597</v>
+      </c>
+      <c r="I62">
+        <v>-0.60911939168923801</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.44133</v>
       </c>
       <c r="B63">
         <v>0.30132999999999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>0.25014092448449249</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>0.39485664821085253</v>
+      </c>
+      <c r="H63">
+        <v>0.82585858156479097</v>
+      </c>
+      <c r="I63">
+        <v>0.563877294502794</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.24132999999999999</v>
       </c>
       <c r="B64">
         <v>-0.19867000000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>0.13678939340713483</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>-0.26031621137872091</v>
+      </c>
+      <c r="H64">
+        <v>0.77204380857178601</v>
+      </c>
+      <c r="I64">
+        <v>-0.63556931773487202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.94133</v>
       </c>
       <c r="B65">
         <v>0.20133000000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>0.53351975217788661</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>0.26382207629293786</v>
+      </c>
+      <c r="H65">
+        <v>0.97788397687352202</v>
+      </c>
+      <c r="I65">
+        <v>0.209148100096614</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>-0.15867000000000001</v>
       </c>
       <c r="B66">
         <v>0.10133</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>-8.9913668747580458E-2</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>0.13278750437502315</v>
+      </c>
+      <c r="H66">
+        <v>-0.84279866471571896</v>
+      </c>
+      <c r="I66">
+        <v>0.53822895755747002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.64132999999999996</v>
       </c>
       <c r="B67">
         <v>0.20133000000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <f t="shared" ref="C67:C130" si="2">STANDARDIZE(A67, $F$2, $F$4)</f>
+        <v>0.36349245556185011</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D130" si="3">STANDARDIZE(B67, $G$2, $G$4)</f>
+        <v>0.26382207629293786</v>
+      </c>
+      <c r="H67">
+        <v>0.95409190101091002</v>
+      </c>
+      <c r="I67">
+        <v>0.29951401373789799</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.74133000000000004</v>
       </c>
       <c r="B68">
         <v>0.30132999999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68">
+        <f t="shared" si="2"/>
+        <v>0.42016822110052898</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="3"/>
+        <v>0.39485664821085253</v>
+      </c>
+      <c r="H68">
+        <v>0.92639479770004196</v>
+      </c>
+      <c r="I68">
+        <v>0.37655368647019999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.34133000000000002</v>
       </c>
       <c r="B69">
         <v>-0.19867000000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <f t="shared" si="2"/>
+        <v>0.19346515894581368</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="3"/>
+        <v>-0.26031621137872091</v>
+      </c>
+      <c r="H69">
+        <v>0.86426247701461001</v>
+      </c>
+      <c r="I69">
+        <v>-0.50304112239912302</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.74133000000000004</v>
       </c>
       <c r="B70">
         <v>0.30132999999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <f t="shared" si="2"/>
+        <v>0.42016822110052898</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="3"/>
+        <v>0.39485664821085253</v>
+      </c>
+      <c r="H70">
+        <v>0.92639479770004196</v>
+      </c>
+      <c r="I70">
+        <v>0.37655368647019999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.14133000000000001</v>
       </c>
       <c r="B71">
         <v>-9.8667000000000005E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <f t="shared" si="2"/>
+        <v>8.0113627868456022E-2</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="3"/>
+        <v>-0.12927770842364869</v>
+      </c>
+      <c r="H71">
+        <v>0.81995083914692002</v>
+      </c>
+      <c r="I71">
+        <v>-0.57243394499475797</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1.0412999999999999</v>
       </c>
       <c r="B72">
         <v>0.60133000000000003</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <f t="shared" si="2"/>
+        <v>0.59017851498690377</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="3"/>
+        <v>0.78796036396459657</v>
+      </c>
+      <c r="H72">
+        <v>0.86597672599348097</v>
+      </c>
+      <c r="I72">
+        <v>0.500084302930625</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.24132999999999999</v>
       </c>
       <c r="B73">
         <v>0.10133</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <f t="shared" si="2"/>
+        <v>0.13678939340713483</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="3"/>
+        <v>0.13278750437502315</v>
+      </c>
+      <c r="H73">
+        <v>0.92202111217809402</v>
+      </c>
+      <c r="I73">
+        <v>0.38713959846271201</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1.1413</v>
       </c>
       <c r="B74">
         <v>0.30132999999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <f t="shared" si="2"/>
+        <v>0.64685428052558269</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="3"/>
+        <v>0.39485664821085253</v>
+      </c>
+      <c r="H74">
+        <v>0.96686824554840101</v>
+      </c>
+      <c r="I74">
+        <v>0.25527592081932798</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.94133</v>
       </c>
       <c r="B75">
         <v>1.3332999999999999E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <f t="shared" si="2"/>
+        <v>0.53351975217788661</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="3"/>
+        <v>1.7572565979817561E-3</v>
+      </c>
+      <c r="H75">
+        <v>0.99999899690674598</v>
+      </c>
+      <c r="I75">
+        <v>1.41639877893593E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.54132999999999998</v>
       </c>
       <c r="B76">
         <v>0.10133</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76">
+        <f t="shared" si="2"/>
+        <v>0.3068166900231713</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="3"/>
+        <v>0.13278750437502315</v>
+      </c>
+      <c r="H76">
+        <v>0.982927848318352</v>
+      </c>
+      <c r="I76">
+        <v>0.183991426431379</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.64132999999999996</v>
       </c>
       <c r="B77">
         <v>0.20133000000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <f t="shared" si="2"/>
+        <v>0.36349245556185011</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="3"/>
+        <v>0.26382207629293786</v>
+      </c>
+      <c r="H77">
+        <v>0.95409190101091002</v>
+      </c>
+      <c r="I77">
+        <v>0.29951401373789799</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1.0412999999999999</v>
       </c>
       <c r="B78">
         <v>0.20133000000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <f t="shared" si="2"/>
+        <v>0.59017851498690377</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="3"/>
+        <v>0.26382207629293786</v>
+      </c>
+      <c r="H78">
+        <v>0.98181711172065</v>
+      </c>
+      <c r="I78">
+        <v>0.189829289448495</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1.2413000000000001</v>
       </c>
       <c r="B79">
         <v>0.50133000000000005</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <f t="shared" si="2"/>
+        <v>0.70353004606426151</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="3"/>
+        <v>0.65692579204668189</v>
+      </c>
+      <c r="H79">
+        <v>0.92723255948264105</v>
+      </c>
+      <c r="I79">
+        <v>0.37448602194911101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.74133000000000004</v>
       </c>
       <c r="B80">
         <v>0.30132999999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80">
+        <f t="shared" si="2"/>
+        <v>0.42016822110052898</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="3"/>
+        <v>0.39485664821085253</v>
+      </c>
+      <c r="H80">
+        <v>0.92639479770004196</v>
+      </c>
+      <c r="I80">
+        <v>0.37655368647019999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>-0.25867000000000001</v>
       </c>
       <c r="B81">
         <v>-0.19867000000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81">
+        <f t="shared" si="2"/>
+        <v>-0.14658943428625928</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="3"/>
+        <v>-0.26031621137872091</v>
+      </c>
+      <c r="H81">
+        <v>-0.79307853751575597</v>
+      </c>
+      <c r="I81">
+        <v>-0.60911939168923801</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>4.1333000000000002E-2</v>
       </c>
       <c r="B82">
         <v>-9.8667000000000005E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82">
+        <f t="shared" si="2"/>
+        <v>2.3439562602743356E-2</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="3"/>
+        <v>-0.12927770842364869</v>
+      </c>
+      <c r="H82">
+        <v>0.38638095501213399</v>
+      </c>
+      <c r="I82">
+        <v>-0.92233928551477695</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>-5.8666999999999997E-2</v>
       </c>
       <c r="B83">
         <v>-0.19867000000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83">
+        <f t="shared" si="2"/>
+        <v>-3.3236202935935467E-2</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="3"/>
+        <v>-0.26031621137872091</v>
+      </c>
+      <c r="H83">
+        <v>-0.28320870530567299</v>
+      </c>
+      <c r="I83">
+        <v>-0.95905830335756104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.14133000000000001</v>
       </c>
       <c r="B84">
         <v>1.3332999999999999E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84">
+        <f t="shared" si="2"/>
+        <v>8.0113627868456022E-2</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="3"/>
+        <v>1.7572565979817561E-3</v>
+      </c>
+      <c r="H84">
+        <v>0.99995550327405902</v>
+      </c>
+      <c r="I84">
+        <v>9.4335291340501108E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1.3412999999999999</v>
       </c>
       <c r="B85">
         <v>0.40133000000000002</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C85">
+        <f t="shared" si="2"/>
+        <v>0.76020581160294032</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="3"/>
+        <v>0.52589122012876721</v>
+      </c>
+      <c r="H85">
+        <v>0.95803441325630101</v>
+      </c>
+      <c r="I85">
+        <v>0.28665321037213998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.74133000000000004</v>
       </c>
       <c r="B86">
         <v>0.30132999999999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86">
+        <f t="shared" si="2"/>
+        <v>0.42016822110052898</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="3"/>
+        <v>0.39485664821085253</v>
+      </c>
+      <c r="H86">
+        <v>0.92639479770004196</v>
+      </c>
+      <c r="I86">
+        <v>0.37655368647019999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.74133000000000004</v>
       </c>
       <c r="B87">
         <v>0.40133000000000002</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C87">
+        <f t="shared" si="2"/>
+        <v>0.42016822110052898</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="3"/>
+        <v>0.52589122012876721</v>
+      </c>
+      <c r="H87">
+        <v>0.87940309983687803</v>
+      </c>
+      <c r="I87">
+        <v>0.47607792219056799</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.94133</v>
       </c>
       <c r="B88">
         <v>0.30132999999999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88">
+        <f t="shared" si="2"/>
+        <v>0.53351975217788661</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="3"/>
+        <v>0.39485664821085253</v>
+      </c>
+      <c r="H88">
+        <v>0.95239348141701596</v>
+      </c>
+      <c r="I88">
+        <v>0.304871541069964</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.64132999999999996</v>
       </c>
       <c r="B89">
         <v>0.10133</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89">
+        <f t="shared" si="2"/>
+        <v>0.36349245556185011</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="3"/>
+        <v>0.13278750437502315</v>
+      </c>
+      <c r="H89">
+        <v>0.98774697584028404</v>
+      </c>
+      <c r="I89">
+        <v>0.156063806561202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.34133000000000002</v>
       </c>
       <c r="B90">
         <v>0.10133</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90">
+        <f t="shared" si="2"/>
+        <v>0.19346515894581368</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="3"/>
+        <v>0.13278750437502315</v>
+      </c>
+      <c r="H90">
+        <v>0.95864866218003797</v>
+      </c>
+      <c r="I90">
+        <v>0.28459223900244102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.24132999999999999</v>
       </c>
       <c r="B91">
         <v>0.10133</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C91">
+        <f t="shared" si="2"/>
+        <v>0.13678939340713483</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="3"/>
+        <v>0.13278750437502315</v>
+      </c>
+      <c r="H91">
+        <v>0.92202111217809402</v>
+      </c>
+      <c r="I91">
+        <v>0.38713959846271201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.64132999999999996</v>
       </c>
       <c r="B92">
         <v>1.3332999999999999E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92">
+        <f t="shared" si="2"/>
+        <v>0.36349245556185011</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="3"/>
+        <v>1.7572565979817561E-3</v>
+      </c>
+      <c r="H92">
+        <v>0.99999783896777295</v>
+      </c>
+      <c r="I92">
+        <v>2.07895641665871E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.84133000000000002</v>
       </c>
       <c r="B93">
         <v>0.20133000000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C93">
+        <f t="shared" si="2"/>
+        <v>0.4768439866392078</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="3"/>
+        <v>0.26382207629293786</v>
+      </c>
+      <c r="H93">
+        <v>0.97254164775215302</v>
+      </c>
+      <c r="I93">
+        <v>0.23272890535454699</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.24132999999999999</v>
       </c>
       <c r="B94">
         <v>1.3332999999999999E-3</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94">
+        <f t="shared" si="2"/>
+        <v>0.13678939340713483</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="3"/>
+        <v>1.7572565979817561E-3</v>
+      </c>
+      <c r="H94">
+        <v>0.99998473864148396</v>
+      </c>
+      <c r="I94">
+        <v>5.5247157503447103E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>-0.45867000000000002</v>
       </c>
       <c r="B95">
         <v>-0.19867000000000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95">
+        <f t="shared" si="2"/>
+        <v>-0.25994096536361694</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="3"/>
+        <v>-0.26031621137872091</v>
+      </c>
+      <c r="H95">
+        <v>-0.917619112811076</v>
+      </c>
+      <c r="I95">
+        <v>-0.39746089594300099</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.44133</v>
       </c>
       <c r="B96">
         <v>0.10133</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96">
+        <f t="shared" si="2"/>
+        <v>0.25014092448449249</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="3"/>
+        <v>0.13278750437502315</v>
+      </c>
+      <c r="H96">
+        <v>0.97463997370906996</v>
+      </c>
+      <c r="I96">
+        <v>0.22377873368214199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.44133</v>
       </c>
       <c r="B97">
         <v>1.3332999999999999E-3</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C97">
+        <f t="shared" si="2"/>
+        <v>0.25014092448449249</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="3"/>
+        <v>1.7572565979817561E-3</v>
+      </c>
+      <c r="H97">
+        <v>0.99999543652275502</v>
+      </c>
+      <c r="I97">
+        <v>3.0210815387936201E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.44133</v>
       </c>
       <c r="B98">
         <v>0.10133</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98">
+        <f t="shared" si="2"/>
+        <v>0.25014092448449249</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="3"/>
+        <v>0.13278750437502315</v>
+      </c>
+      <c r="H98">
+        <v>0.97463997370906996</v>
+      </c>
+      <c r="I98">
+        <v>0.22377873368214199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.54132999999999998</v>
       </c>
       <c r="B99">
         <v>0.10133</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C99">
+        <f t="shared" si="2"/>
+        <v>0.3068166900231713</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="3"/>
+        <v>0.13278750437502315</v>
+      </c>
+      <c r="H99">
+        <v>0.982927848318352</v>
+      </c>
+      <c r="I99">
+        <v>0.183991426431379</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>-0.75866999999999996</v>
       </c>
       <c r="B100">
         <v>-9.8667000000000005E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100">
+        <f t="shared" si="2"/>
+        <v>-0.42996826197965343</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="3"/>
+        <v>-0.12927770842364869</v>
+      </c>
+      <c r="H100">
+        <v>-0.99164894882375898</v>
+      </c>
+      <c r="I100">
+        <v>-0.128966516184367</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.34133000000000002</v>
       </c>
       <c r="B101">
         <v>0.10133</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C101">
+        <f t="shared" si="2"/>
+        <v>0.19346515894581368</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="3"/>
+        <v>0.13278750437502315</v>
+      </c>
+      <c r="H101">
+        <v>0.95864866218003797</v>
+      </c>
+      <c r="I101">
+        <v>0.28459223900244102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2.2412999999999998</v>
       </c>
       <c r="B102">
         <v>1.3012999999999999</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102">
+        <f t="shared" si="2"/>
+        <v>1.2702877014510499</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="3"/>
+        <v>1.7051630570184237</v>
+      </c>
+      <c r="H102">
+        <v>0.86480570132896395</v>
+      </c>
+      <c r="I102">
+        <v>0.50210666092864897</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1.3412999999999999</v>
       </c>
       <c r="B103">
         <v>0.70133000000000001</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C103">
+        <f t="shared" si="2"/>
+        <v>0.76020581160294032</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="3"/>
+        <v>0.91899493588251124</v>
+      </c>
+      <c r="H103">
+        <v>0.88617229949281195</v>
+      </c>
+      <c r="I103">
+        <v>0.463355862822108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2.1413000000000002</v>
       </c>
       <c r="B104">
         <v>0.90132999999999996</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C104">
+        <f t="shared" si="2"/>
+        <v>1.2136119359123712</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="3"/>
+        <v>1.1810640797183405</v>
+      </c>
+      <c r="H104">
+        <v>0.92167693407041296</v>
+      </c>
+      <c r="I104">
+        <v>0.38795828281216299</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1.8412999999999999</v>
       </c>
       <c r="B105">
         <v>0.60133000000000003</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C105">
+        <f t="shared" si="2"/>
+        <v>1.0435846392963344</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="3"/>
+        <v>0.78796036396459657</v>
+      </c>
+      <c r="H105">
+        <v>0.95059186996220502</v>
+      </c>
+      <c r="I105">
+        <v>0.31044338736999499</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2.0413000000000001</v>
       </c>
       <c r="B106">
         <v>1.0013000000000001</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C106">
+        <f t="shared" si="2"/>
+        <v>1.1569361703736922</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="3"/>
+        <v>1.3120593412646799</v>
+      </c>
+      <c r="H106">
+        <v>0.89780548791605697</v>
+      </c>
+      <c r="I106">
+        <v>0.44039221821895203</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2.8412999999999999</v>
       </c>
       <c r="B107">
         <v>0.90132999999999996</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C107">
+        <f t="shared" si="2"/>
+        <v>1.6103422946831227</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="3"/>
+        <v>1.1810640797183405</v>
+      </c>
+      <c r="H107">
+        <v>0.95318906769595202</v>
+      </c>
+      <c r="I107">
+        <v>0.30237493484897399</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.74133000000000004</v>
       </c>
       <c r="B108">
         <v>0.50133000000000005</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C108">
+        <f t="shared" si="2"/>
+        <v>0.42016822110052898</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="3"/>
+        <v>0.65692579204668189</v>
+      </c>
+      <c r="H108">
+        <v>0.82836530968010602</v>
+      </c>
+      <c r="I108">
+        <v>0.56018828416754696</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2.5413000000000001</v>
       </c>
       <c r="B109">
         <v>0.60133000000000003</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C109">
+        <f t="shared" si="2"/>
+        <v>1.4403149980670864</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="3"/>
+        <v>0.78796036396459657</v>
+      </c>
+      <c r="H109">
+        <v>0.97312808575395304</v>
+      </c>
+      <c r="I109">
+        <v>0.230264475585891</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2.0413000000000001</v>
       </c>
       <c r="B110">
         <v>0.60133000000000003</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C110">
+        <f t="shared" si="2"/>
+        <v>1.1569361703736922</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="3"/>
+        <v>0.78796036396459657</v>
+      </c>
+      <c r="H110">
+        <v>0.95924486642686801</v>
+      </c>
+      <c r="I110">
+        <v>0.28257616005901498</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2.3412999999999999</v>
       </c>
       <c r="B111">
         <v>1.3012999999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C111">
+        <f t="shared" si="2"/>
+        <v>1.3269634669897286</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="3"/>
+        <v>1.7051630570184237</v>
+      </c>
+      <c r="H111">
+        <v>0.87406569031296</v>
+      </c>
+      <c r="I111">
+        <v>0.48580774903013502</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1.3412999999999999</v>
       </c>
       <c r="B112">
         <v>0.80132999999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C112">
+        <f t="shared" si="2"/>
+        <v>0.76020581160294032</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="3"/>
+        <v>1.0500295078004258</v>
+      </c>
+      <c r="H112">
+        <v>0.85846554435288303</v>
+      </c>
+      <c r="I112">
+        <v>0.51287124033124198</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1.5412999999999999</v>
       </c>
       <c r="B113">
         <v>0.70133000000000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C113">
+        <f t="shared" si="2"/>
+        <v>0.87355734268029794</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="3"/>
+        <v>0.91899493588251124</v>
+      </c>
+      <c r="H113">
+        <v>0.91020198421610499</v>
+      </c>
+      <c r="I113">
+        <v>0.41416463867532699</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1.7413000000000001</v>
       </c>
       <c r="B114">
         <v>0.90132999999999996</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C114">
+        <f t="shared" si="2"/>
+        <v>0.98690887375765568</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="3"/>
+        <v>1.1810640797183405</v>
+      </c>
+      <c r="H114">
+        <v>0.88808074782283497</v>
+      </c>
+      <c r="I114">
+        <v>0.45968748661066799</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1.2413000000000001</v>
       </c>
       <c r="B115">
         <v>0.80132999999999999</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C115">
+        <f t="shared" si="2"/>
+        <v>0.70353004606426151</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="3"/>
+        <v>1.0500295078004258</v>
+      </c>
+      <c r="H115">
+        <v>0.840145137501073</v>
+      </c>
+      <c r="I115">
+        <v>0.54236163943747195</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1.3412999999999999</v>
       </c>
       <c r="B116">
         <v>1.2013</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C116">
+        <f t="shared" si="2"/>
+        <v>0.76020581160294032</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="3"/>
+        <v>1.5741284851005093</v>
+      </c>
+      <c r="H116">
+        <v>0.74491295895056497</v>
+      </c>
+      <c r="I116">
+        <v>0.66716166225849105</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1.5412999999999999</v>
       </c>
       <c r="B117">
         <v>1.1012999999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C117">
+        <f t="shared" si="2"/>
+        <v>0.87355734268029794</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="3"/>
+        <v>1.4430939131825946</v>
+      </c>
+      <c r="H117">
+        <v>0.81364072297608603</v>
+      </c>
+      <c r="I117">
+        <v>0.58136801934312798</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1.7413000000000001</v>
       </c>
       <c r="B118">
         <v>0.60133000000000003</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C118">
+        <f t="shared" si="2"/>
+        <v>0.98690887375765568</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="3"/>
+        <v>0.78796036396459657</v>
+      </c>
+      <c r="H118">
+        <v>0.94522538116194799</v>
+      </c>
+      <c r="I118">
+        <v>0.32641841064383698</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2.9413</v>
       </c>
       <c r="B119">
         <v>1.0013000000000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C119">
+        <f t="shared" si="2"/>
+        <v>1.6670180602218017</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="3"/>
+        <v>1.3120593412646799</v>
+      </c>
+      <c r="H119">
+        <v>0.94664927932756704</v>
+      </c>
+      <c r="I119">
+        <v>0.322265638796006</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>3.1413000000000002</v>
       </c>
       <c r="B120">
         <v>1.1012999999999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C120">
+        <f t="shared" si="2"/>
+        <v>1.7803695912991595</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="3"/>
+        <v>1.4430939131825946</v>
+      </c>
+      <c r="H120">
+        <v>0.94368540645701804</v>
+      </c>
+      <c r="I120">
+        <v>0.33084415309939003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1.2413000000000001</v>
       </c>
       <c r="B121">
         <v>0.30132999999999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C121">
+        <f t="shared" si="2"/>
+        <v>0.70353004606426151</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="3"/>
+        <v>0.39485664821085253</v>
+      </c>
+      <c r="H121">
+        <v>0.97177678257599198</v>
+      </c>
+      <c r="I121">
+        <v>0.23590227817096801</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1.9413</v>
       </c>
       <c r="B122">
         <v>1.1012999999999999</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C122">
+        <f t="shared" si="2"/>
+        <v>1.1002604048350133</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="3"/>
+        <v>1.4430939131825946</v>
+      </c>
+      <c r="H122">
+        <v>0.86978570458586602</v>
+      </c>
+      <c r="I122">
+        <v>0.49342965871344602</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1.1413</v>
       </c>
       <c r="B123">
         <v>0.80132999999999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C123">
+        <f t="shared" si="2"/>
+        <v>0.64685428052558269</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="3"/>
+        <v>1.0500295078004258</v>
+      </c>
+      <c r="H123">
+        <v>0.81841582286705505</v>
+      </c>
+      <c r="I123">
+        <v>0.57462643593976803</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2.9413</v>
       </c>
       <c r="B124">
         <v>0.80132999999999999</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C124">
+        <f t="shared" si="2"/>
+        <v>1.6670180602218017</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="3"/>
+        <v>1.0500295078004258</v>
+      </c>
+      <c r="H124">
+        <v>0.96483396006425304</v>
+      </c>
+      <c r="I124">
+        <v>0.26286009493023099</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1.1413</v>
       </c>
       <c r="B125">
         <v>0.60133000000000003</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C125">
+        <f t="shared" si="2"/>
+        <v>0.64685428052558269</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="3"/>
+        <v>0.78796036396459657</v>
+      </c>
+      <c r="H125">
+        <v>0.88471181350181005</v>
+      </c>
+      <c r="I125">
+        <v>0.46613839903009102</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1.9413</v>
       </c>
       <c r="B126">
         <v>0.90132999999999996</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C126">
+        <f t="shared" si="2"/>
+        <v>1.1002604048350133</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="3"/>
+        <v>1.1810640797183405</v>
+      </c>
+      <c r="H126">
+        <v>0.90700680079457097</v>
+      </c>
+      <c r="I126">
+        <v>0.42111597370842702</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2.2412999999999998</v>
       </c>
       <c r="B127">
         <v>0.60133000000000003</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C127">
+        <f t="shared" si="2"/>
+        <v>1.2702877014510499</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="3"/>
+        <v>0.78796036396459657</v>
+      </c>
+      <c r="H127">
+        <v>0.96584223220896503</v>
+      </c>
+      <c r="I127">
+        <v>0.25913082117262998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1.0412999999999999</v>
       </c>
       <c r="B128">
         <v>0.60133000000000003</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C128">
+        <f t="shared" si="2"/>
+        <v>0.59017851498690377</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="3"/>
+        <v>0.78796036396459657</v>
+      </c>
+      <c r="H128">
+        <v>0.86597672599348097</v>
+      </c>
+      <c r="I128">
+        <v>0.500084302930625</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1.1413</v>
       </c>
       <c r="B129">
         <v>0.60133000000000003</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C129">
+        <f t="shared" si="2"/>
+        <v>0.64685428052558269</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="3"/>
+        <v>0.78796036396459657</v>
+      </c>
+      <c r="H129">
+        <v>0.88471181350181005</v>
+      </c>
+      <c r="I129">
+        <v>0.46613839903009102</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1.8412999999999999</v>
       </c>
       <c r="B130">
         <v>0.90132999999999996</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C130">
+        <f t="shared" si="2"/>
+        <v>1.0435846392963344</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="3"/>
+        <v>1.1810640797183405</v>
+      </c>
+      <c r="H130">
+        <v>0.89816504553085397</v>
+      </c>
+      <c r="I130">
+        <v>0.43965844810097499</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2.0413000000000001</v>
       </c>
       <c r="B131">
         <v>0.40133000000000002</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C131">
+        <f t="shared" ref="C131:C151" si="4">STANDARDIZE(A131, $F$2, $F$4)</f>
+        <v>1.1569361703736922</v>
+      </c>
+      <c r="D131">
+        <f t="shared" ref="D131:D151" si="5">STANDARDIZE(B131, $G$2, $G$4)</f>
+        <v>0.52589122012876721</v>
+      </c>
+      <c r="H131">
+        <v>0.981216045592751</v>
+      </c>
+      <c r="I131">
+        <v>0.19291208326935699</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2.3412999999999999</v>
       </c>
       <c r="B132">
         <v>0.70133000000000001</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C132">
+        <f t="shared" si="4"/>
+        <v>1.3269634669897286</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="5"/>
+        <v>0.91899493588251124</v>
+      </c>
+      <c r="H132">
+        <v>0.95794556960801402</v>
+      </c>
+      <c r="I132">
+        <v>0.28694997067150202</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2.6413000000000002</v>
       </c>
       <c r="B133">
         <v>0.80132999999999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C133">
+        <f t="shared" si="4"/>
+        <v>1.4969907636057653</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="5"/>
+        <v>1.0500295078004258</v>
+      </c>
+      <c r="H133">
+        <v>0.95693023041404601</v>
+      </c>
+      <c r="I133">
+        <v>0.29031798793688202</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1.8412999999999999</v>
       </c>
       <c r="B134">
         <v>1.0013000000000001</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C134">
+        <f t="shared" si="4"/>
+        <v>1.0435846392963344</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="5"/>
+        <v>1.3120593412646799</v>
+      </c>
+      <c r="H134">
+        <v>0.87850568314673005</v>
+      </c>
+      <c r="I134">
+        <v>0.47773189623354201</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1.3412999999999999</v>
       </c>
       <c r="B135">
         <v>0.30132999999999999</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C135">
+        <f t="shared" si="4"/>
+        <v>0.76020581160294032</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="5"/>
+        <v>0.39485664821085253</v>
+      </c>
+      <c r="H135">
+        <v>0.97568175268280799</v>
+      </c>
+      <c r="I135">
+        <v>0.21919196491158599</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1.8412999999999999</v>
       </c>
       <c r="B136">
         <v>0.20133000000000001</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C136">
+        <f t="shared" si="4"/>
+        <v>1.0435846392963344</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="5"/>
+        <v>0.26382207629293786</v>
+      </c>
+      <c r="H136">
+        <v>0.99407531990284304</v>
+      </c>
+      <c r="I136">
+        <v>0.108693414520197</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2.3412999999999999</v>
       </c>
       <c r="B137">
         <v>1.1012999999999999</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C137">
+        <f t="shared" si="4"/>
+        <v>1.3269634669897286</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="5"/>
+        <v>1.4430939131825946</v>
+      </c>
+      <c r="H137">
+        <v>0.90489138873695296</v>
+      </c>
+      <c r="I137">
+        <v>0.42564254320933098</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1.8412999999999999</v>
       </c>
       <c r="B138">
         <v>1.2013</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C138">
+        <f t="shared" si="4"/>
+        <v>1.0435846392963344</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="5"/>
+        <v>1.5741284851005093</v>
+      </c>
+      <c r="H138">
+        <v>0.83751647738107304</v>
+      </c>
+      <c r="I138">
+        <v>0.54641206988425695</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1.7413000000000001</v>
       </c>
       <c r="B139">
         <v>0.60133000000000003</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C139">
+        <f t="shared" si="4"/>
+        <v>0.98690887375765568</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="5"/>
+        <v>0.78796036396459657</v>
+      </c>
+      <c r="H139">
+        <v>0.94522538116194799</v>
+      </c>
+      <c r="I139">
+        <v>0.32641841064383698</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1.0412999999999999</v>
       </c>
       <c r="B140">
         <v>0.60133000000000003</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C140">
+        <f t="shared" si="4"/>
+        <v>0.59017851498690377</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="5"/>
+        <v>0.78796036396459657</v>
+      </c>
+      <c r="H140">
+        <v>0.86597672599348097</v>
+      </c>
+      <c r="I140">
+        <v>0.500084302930625</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1.6413</v>
       </c>
       <c r="B141">
         <v>0.90132999999999996</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C141">
+        <f t="shared" si="4"/>
+        <v>0.93023310821897676</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="5"/>
+        <v>1.1810640797183405</v>
+      </c>
+      <c r="H141">
+        <v>0.87652805385440802</v>
+      </c>
+      <c r="I141">
+        <v>0.48135077729884501</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1.8412999999999999</v>
       </c>
       <c r="B142">
         <v>1.2013</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C142">
+        <f t="shared" si="4"/>
+        <v>1.0435846392963344</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="5"/>
+        <v>1.5741284851005093</v>
+      </c>
+      <c r="H142">
+        <v>0.83751647738107304</v>
+      </c>
+      <c r="I142">
+        <v>0.54641206988425695</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1.3412999999999999</v>
       </c>
       <c r="B143">
         <v>1.1012999999999999</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C143">
+        <f t="shared" si="4"/>
+        <v>0.76020581160294032</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="5"/>
+        <v>1.4430939131825946</v>
+      </c>
+      <c r="H143">
+        <v>0.77286249822702302</v>
+      </c>
+      <c r="I143">
+        <v>0.63457352516023202</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1.3412999999999999</v>
       </c>
       <c r="B144">
         <v>0.70133000000000001</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C144">
+        <f t="shared" si="4"/>
+        <v>0.76020581160294032</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="5"/>
+        <v>0.91899493588251124</v>
+      </c>
+      <c r="H144">
+        <v>0.88617229949281195</v>
+      </c>
+      <c r="I144">
+        <v>0.463355862822108</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2.1413000000000002</v>
       </c>
       <c r="B145">
         <v>1.1012999999999999</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C145">
+        <f t="shared" si="4"/>
+        <v>1.2136119359123712</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="5"/>
+        <v>1.4430939131825946</v>
+      </c>
+      <c r="H145">
+        <v>0.889277667648256</v>
+      </c>
+      <c r="I145">
+        <v>0.45736771838650497</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1.9413</v>
       </c>
       <c r="B146">
         <v>1.3012999999999999</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C146">
+        <f t="shared" si="4"/>
+        <v>1.1002604048350133</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="5"/>
+        <v>1.7051630570184237</v>
+      </c>
+      <c r="H146">
+        <v>0.830645502849365</v>
+      </c>
+      <c r="I146">
+        <v>0.55680162409616196</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1.4413</v>
       </c>
       <c r="B147">
         <v>1.1012999999999999</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C147">
+        <f t="shared" si="4"/>
+        <v>0.81688157714161913</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="5"/>
+        <v>1.4430939131825946</v>
+      </c>
+      <c r="H147">
+        <v>0.79458936959117499</v>
+      </c>
+      <c r="I147">
+        <v>0.60714720927687504</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1.2413000000000001</v>
       </c>
       <c r="B148">
         <v>0.70133000000000001</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C148">
+        <f t="shared" si="4"/>
+        <v>0.70353004606426151</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="5"/>
+        <v>0.91899493588251124</v>
+      </c>
+      <c r="H148">
+        <v>0.87064525583518404</v>
+      </c>
+      <c r="I148">
+        <v>0.49191141325617399</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1.4413</v>
       </c>
       <c r="B149">
         <v>0.80132999999999999</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C149">
+        <f t="shared" si="4"/>
+        <v>0.81688157714161913</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="5"/>
+        <v>1.0500295078004258</v>
+      </c>
+      <c r="H149">
+        <v>0.87400076874843502</v>
+      </c>
+      <c r="I149">
+        <v>0.48592453758494603</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1.6413</v>
       </c>
       <c r="B150">
         <v>1.1012999999999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C150">
+        <f t="shared" si="4"/>
+        <v>0.93023310821897676</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="5"/>
+        <v>1.4430939131825946</v>
+      </c>
+      <c r="H150">
+        <v>0.83038867273073802</v>
+      </c>
+      <c r="I150">
+        <v>0.55718457642013197</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1.3412999999999999</v>
       </c>
       <c r="B151">
         <v>0.60133000000000003</v>
       </c>
+      <c r="C151">
+        <f t="shared" si="4"/>
+        <v>0.76020581160294032</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="5"/>
+        <v>0.78796036396459657</v>
+      </c>
+      <c r="H151">
+        <v>0.91249470071650995</v>
+      </c>
+      <c r="I151">
+        <v>0.40908852485041303</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>